--- a/data/raw/vermont_raw_2025.xlsx
+++ b/data/raw/vermont_raw_2025.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://api.box.com/wopi/files/2124106840561/WOPIServiceId_TP_BOX_2/WOPIUserId_-/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ey239/Github/IMT/data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="8_{A70DD0BA-7DD2-7545-A103-78ED2B6A60A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0F43E56A-68CA-0B46-B566-58998977478E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78CEA7C3-9387-564F-B77A-D6F5D7F2F5D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17700" yWindow="-28200" windowWidth="34380" windowHeight="27000" xr2:uid="{49068518-14B0-D345-9DD7-3575BA26D59B}"/>
+    <workbookView xWindow="17700" yWindow="-21000" windowWidth="34380" windowHeight="21000" xr2:uid="{49068518-14B0-D345-9DD7-3575BA26D59B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -219,7 +219,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -245,6 +245,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -266,7 +272,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -289,19 +295,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -319,9 +312,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -658,8 +651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{552ABB6F-1632-5748-B886-C4054FE1CDBE}">
   <dimension ref="A1:O37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S29" sqref="S29"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1:O37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -719,7 +712,7 @@
       <c r="N1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="O1" s="3" t="s">
         <v>58</v>
       </c>
     </row>
@@ -760,14 +753,14 @@
       <c r="L2" s="3">
         <v>98.1</v>
       </c>
-      <c r="M2" s="9">
+      <c r="M2" s="8">
         <v>15</v>
       </c>
-      <c r="N2" s="10">
+      <c r="N2" s="9">
         <v>198.21</v>
       </c>
       <c r="O2" s="10">
-        <v>12.2</v>
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
@@ -807,14 +800,14 @@
       <c r="L3" s="3">
         <v>115.1</v>
       </c>
-      <c r="M3" s="9">
+      <c r="M3" s="8">
         <v>15.5</v>
       </c>
-      <c r="N3" s="10">
+      <c r="N3" s="9">
         <v>37.21</v>
       </c>
       <c r="O3" s="10">
-        <v>15.2</v>
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
@@ -854,14 +847,14 @@
       <c r="L4" s="3">
         <v>0</v>
       </c>
-      <c r="M4" s="9">
+      <c r="M4" s="8">
         <v>15</v>
       </c>
-      <c r="N4" s="10">
+      <c r="N4" s="9">
         <v>169.93</v>
       </c>
       <c r="O4" s="10">
-        <v>14.3</v>
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
@@ -901,14 +894,14 @@
       <c r="L5" s="3">
         <v>36</v>
       </c>
-      <c r="M5" s="9">
+      <c r="M5" s="8">
         <v>9.5</v>
       </c>
-      <c r="N5" s="10">
+      <c r="N5" s="9">
         <v>250.83</v>
       </c>
       <c r="O5" s="10">
-        <v>11.7</v>
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
@@ -948,14 +941,14 @@
       <c r="L6" s="3">
         <v>104.19999999999999</v>
       </c>
-      <c r="M6" s="9">
+      <c r="M6" s="8">
         <v>23.5</v>
       </c>
-      <c r="N6" s="10">
+      <c r="N6" s="9">
         <v>37.19</v>
       </c>
       <c r="O6" s="10">
-        <v>12</v>
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
@@ -995,14 +988,14 @@
       <c r="L7" s="3">
         <v>68.099999999999994</v>
       </c>
-      <c r="M7" s="9">
+      <c r="M7" s="8">
         <v>16</v>
       </c>
-      <c r="N7" s="10">
+      <c r="N7" s="9">
         <v>203.6</v>
       </c>
       <c r="O7" s="10">
-        <v>18.8</v>
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
@@ -1042,14 +1035,14 @@
       <c r="L8" s="3">
         <v>66.800000000000011</v>
       </c>
-      <c r="M8" s="9">
+      <c r="M8" s="8">
         <v>15.5</v>
       </c>
-      <c r="N8" s="10">
+      <c r="N8" s="9">
         <v>28.98</v>
       </c>
       <c r="O8" s="10">
-        <v>10.7</v>
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
@@ -1089,14 +1082,14 @@
       <c r="L9" s="3">
         <v>15.3</v>
       </c>
-      <c r="M9" s="9">
+      <c r="M9" s="8">
         <v>8</v>
       </c>
-      <c r="N9" s="10">
+      <c r="N9" s="9">
         <v>89.86</v>
       </c>
       <c r="O9" s="10">
-        <v>17</v>
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
@@ -1136,14 +1129,14 @@
       <c r="L10" s="3">
         <v>46.3</v>
       </c>
-      <c r="M10" s="9">
+      <c r="M10" s="8">
         <v>15.5</v>
       </c>
-      <c r="N10" s="10">
+      <c r="N10" s="9">
         <v>20.5</v>
       </c>
       <c r="O10" s="10">
-        <v>11.5</v>
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
@@ -1183,14 +1176,14 @@
       <c r="L11" s="3">
         <v>48.4</v>
       </c>
-      <c r="M11" s="9">
+      <c r="M11" s="8">
         <v>24.5</v>
       </c>
-      <c r="N11" s="10">
+      <c r="N11" s="9">
         <v>304.89</v>
       </c>
       <c r="O11" s="10">
-        <v>12.2</v>
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
@@ -1230,14 +1223,14 @@
       <c r="L12" s="3">
         <v>215.9</v>
       </c>
-      <c r="M12" s="9">
+      <c r="M12" s="8">
         <v>20</v>
       </c>
-      <c r="N12" s="10">
+      <c r="N12" s="9">
         <v>62.74</v>
       </c>
       <c r="O12" s="10">
-        <v>14.7</v>
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
@@ -1277,14 +1270,14 @@
       <c r="L13" s="3">
         <v>26.400000000000002</v>
       </c>
-      <c r="M13" s="9">
+      <c r="M13" s="8">
         <v>16</v>
       </c>
-      <c r="N13" s="10">
+      <c r="N13" s="9">
         <v>172.26</v>
       </c>
       <c r="O13" s="10">
-        <v>12.1</v>
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
@@ -1324,14 +1317,14 @@
       <c r="L14" s="3">
         <v>75.5</v>
       </c>
-      <c r="M14" s="9">
+      <c r="M14" s="8">
         <v>16</v>
       </c>
-      <c r="N14" s="10">
+      <c r="N14" s="9">
         <v>21.36</v>
       </c>
       <c r="O14" s="10">
-        <v>14.9</v>
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
@@ -1371,14 +1364,14 @@
       <c r="L15" s="3">
         <v>10.199999999999999</v>
       </c>
-      <c r="M15" s="9">
+      <c r="M15" s="8">
         <v>19</v>
       </c>
-      <c r="N15" s="10">
+      <c r="N15" s="9">
         <v>132.16999999999999</v>
       </c>
       <c r="O15" s="10">
-        <v>12.5</v>
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
@@ -1418,14 +1411,14 @@
       <c r="L16" s="3">
         <v>75</v>
       </c>
-      <c r="M16" s="9">
+      <c r="M16" s="8">
         <v>27.5</v>
       </c>
-      <c r="N16" s="10">
+      <c r="N16" s="9">
         <v>73.44</v>
       </c>
       <c r="O16" s="10">
-        <v>16.8</v>
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
@@ -1465,14 +1458,14 @@
       <c r="L17" s="3">
         <v>10.199999999999999</v>
       </c>
-      <c r="M17" s="9">
+      <c r="M17" s="8">
         <v>24.5</v>
       </c>
-      <c r="N17" s="10">
+      <c r="N17" s="9">
         <v>89.61</v>
       </c>
       <c r="O17" s="10">
-        <v>13</v>
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
@@ -1512,14 +1505,14 @@
       <c r="L18" s="3">
         <v>131.60000000000002</v>
       </c>
-      <c r="M18" s="9">
+      <c r="M18" s="8">
         <v>31</v>
       </c>
-      <c r="N18" s="10">
+      <c r="N18" s="9">
         <v>52.15</v>
       </c>
       <c r="O18" s="10">
-        <v>19.7</v>
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
@@ -1559,14 +1552,14 @@
       <c r="L19" s="3">
         <v>0</v>
       </c>
-      <c r="M19" s="9">
+      <c r="M19" s="8">
         <v>27.5</v>
       </c>
-      <c r="N19" s="10">
+      <c r="N19" s="9">
         <v>85.43</v>
       </c>
       <c r="O19" s="10">
-        <v>16.3</v>
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
@@ -1606,14 +1599,14 @@
       <c r="L20" s="3">
         <v>82.300000000000011</v>
       </c>
-      <c r="M20" s="9">
+      <c r="M20" s="8">
         <v>18.5</v>
       </c>
-      <c r="N20" s="10">
+      <c r="N20" s="9">
         <v>160.21</v>
       </c>
       <c r="O20" s="10">
-        <v>12</v>
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
@@ -1653,14 +1646,14 @@
       <c r="L21" s="3">
         <v>103.8</v>
       </c>
-      <c r="M21" s="9">
+      <c r="M21" s="8">
         <v>16</v>
       </c>
-      <c r="N21" s="10">
+      <c r="N21" s="9">
         <v>150.96</v>
       </c>
       <c r="O21" s="10">
-        <v>11.8</v>
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
@@ -1700,14 +1693,14 @@
       <c r="L22" s="3">
         <v>101.1</v>
       </c>
-      <c r="M22" s="9">
+      <c r="M22" s="8">
         <v>14</v>
       </c>
-      <c r="N22" s="10">
+      <c r="N22" s="9">
         <v>87.4</v>
       </c>
       <c r="O22" s="10">
-        <v>9.1</v>
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
@@ -1747,14 +1740,14 @@
       <c r="L23" s="3">
         <v>234.1</v>
       </c>
-      <c r="M23" s="9">
+      <c r="M23" s="8">
         <v>12</v>
       </c>
-      <c r="N23" s="10">
+      <c r="N23" s="9">
         <v>21.44</v>
       </c>
       <c r="O23" s="10">
-        <v>14.2</v>
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
@@ -1794,14 +1787,14 @@
       <c r="L24" s="3">
         <v>0</v>
       </c>
-      <c r="M24" s="9">
+      <c r="M24" s="8">
         <v>21.5</v>
       </c>
-      <c r="N24" s="10">
+      <c r="N24" s="9">
         <v>336.6</v>
       </c>
       <c r="O24" s="10">
-        <v>17.3</v>
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
@@ -1841,14 +1834,14 @@
       <c r="L25" s="3">
         <v>33.1</v>
       </c>
-      <c r="M25" s="9">
+      <c r="M25" s="8">
         <v>14.5</v>
       </c>
-      <c r="N25" s="10">
+      <c r="N25" s="9">
         <v>142.78</v>
       </c>
       <c r="O25" s="10">
-        <v>13.7</v>
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
@@ -1888,14 +1881,14 @@
       <c r="L26" s="3">
         <v>54.9</v>
       </c>
-      <c r="M26" s="9">
+      <c r="M26" s="8">
         <v>8</v>
       </c>
-      <c r="N26" s="10">
+      <c r="N26" s="9">
         <v>2.86</v>
       </c>
       <c r="O26" s="10">
-        <v>23.1</v>
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
@@ -1935,14 +1928,14 @@
       <c r="L27" s="3">
         <v>115.2</v>
       </c>
-      <c r="M27" s="9">
+      <c r="M27" s="8">
         <v>19</v>
       </c>
-      <c r="N27" s="10">
+      <c r="N27" s="9">
         <v>270.10000000000002</v>
       </c>
       <c r="O27" s="10">
-        <v>16.899999999999999</v>
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
@@ -1982,14 +1975,14 @@
       <c r="L28" s="3">
         <v>131.30000000000001</v>
       </c>
-      <c r="M28" s="9">
+      <c r="M28" s="8">
         <v>12.5</v>
       </c>
-      <c r="N28" s="10">
+      <c r="N28" s="9">
         <v>21.99</v>
       </c>
       <c r="O28" s="10">
-        <v>9.5</v>
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
@@ -2029,14 +2022,14 @@
       <c r="L29" s="3">
         <v>70.5</v>
       </c>
-      <c r="M29" s="9">
+      <c r="M29" s="8">
         <v>21</v>
       </c>
-      <c r="N29" s="10">
+      <c r="N29" s="9">
         <v>216.9</v>
       </c>
       <c r="O29" s="10">
-        <v>18.2</v>
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
@@ -2076,14 +2069,14 @@
       <c r="L30" s="3">
         <v>177.4</v>
       </c>
-      <c r="M30" s="9">
+      <c r="M30" s="8">
         <v>10.5</v>
       </c>
-      <c r="N30" s="10">
+      <c r="N30" s="9">
         <v>18.260000000000002</v>
       </c>
       <c r="O30" s="10">
-        <v>18.8</v>
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
@@ -2123,14 +2116,14 @@
       <c r="L31" s="3">
         <v>66.099999999999994</v>
       </c>
-      <c r="M31" s="9">
+      <c r="M31" s="8">
         <v>17.5</v>
       </c>
-      <c r="N31" s="10">
+      <c r="N31" s="9">
         <v>189.75</v>
       </c>
       <c r="O31" s="10">
-        <v>11.5</v>
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
@@ -2170,14 +2163,14 @@
       <c r="L32" s="3">
         <v>96.8</v>
       </c>
-      <c r="M32" s="9">
+      <c r="M32" s="8">
         <v>20.5</v>
       </c>
-      <c r="N32" s="10">
+      <c r="N32" s="9">
         <v>19.82</v>
       </c>
       <c r="O32" s="10">
-        <v>9.4</v>
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.2">
@@ -2217,14 +2210,14 @@
       <c r="L33" s="3">
         <v>13.600000000000001</v>
       </c>
-      <c r="M33" s="9">
+      <c r="M33" s="8">
         <v>12.5</v>
       </c>
-      <c r="N33" s="10">
+      <c r="N33" s="9">
         <v>178.55</v>
       </c>
       <c r="O33" s="10">
-        <v>11.5</v>
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.2">
@@ -2264,14 +2257,14 @@
       <c r="L34" s="3">
         <v>80.8</v>
       </c>
-      <c r="M34" s="9">
+      <c r="M34" s="8">
         <v>14.5</v>
       </c>
-      <c r="N34" s="10">
+      <c r="N34" s="9">
         <v>32.22</v>
       </c>
       <c r="O34" s="10">
-        <v>10.199999999999999</v>
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.2">
@@ -2311,14 +2304,14 @@
       <c r="L35" s="3">
         <v>0</v>
       </c>
-      <c r="M35" s="9">
+      <c r="M35" s="8">
         <v>24.5</v>
       </c>
-      <c r="N35" s="10">
+      <c r="N35" s="9">
         <v>130.29</v>
       </c>
       <c r="O35" s="10">
-        <v>11.5</v>
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.2">
@@ -2358,14 +2351,14 @@
       <c r="L36" s="3">
         <v>58.199999999999996</v>
       </c>
-      <c r="M36" s="9">
+      <c r="M36" s="8">
         <v>27</v>
       </c>
-      <c r="N36" s="10">
+      <c r="N36" s="9">
         <v>139.63999999999999</v>
       </c>
       <c r="O36" s="10">
-        <v>11.9</v>
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.2">
@@ -2405,14 +2398,14 @@
       <c r="L37" s="3">
         <v>134.9</v>
       </c>
-      <c r="M37" s="9">
+      <c r="M37" s="8">
         <v>21.5</v>
       </c>
-      <c r="N37" s="10">
+      <c r="N37" s="9">
         <v>41.16</v>
       </c>
       <c r="O37" s="10">
-        <v>9.1999999999999993</v>
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
   </sheetData>
